--- a/data/scheduling_DNN/predict/0.5/result22.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result22.xlsx
@@ -570,10 +570,10 @@
         <v>1.342206001281738</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.8973158597946167</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1525878012180328</v>
+        <v>0.1979272365570068</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9773969650268555</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.8617115616798401</v>
       </c>
       <c r="W3" t="n">
-        <v>0.08690784126520157</v>
+        <v>0.01338311284780502</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9132218360900879</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.4239703416824341</v>
       </c>
       <c r="W4" t="n">
-        <v>0.00943781528621912</v>
+        <v>0.2393670231103897</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8862838745117188</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.4996461272239685</v>
       </c>
       <c r="W5" t="n">
-        <v>0.05424270033836365</v>
+        <v>0.1494887471199036</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8809549808502197</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.4974043667316437</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1200721114873886</v>
+        <v>0.1471110731363297</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8732669353485107</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.5405348539352417</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2432197332382202</v>
+        <v>0.1107106357812881</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8806121349334717</v>
       </c>
       <c r="V8" t="n">
-        <v>0.514431357383728</v>
+        <v>0.8627675175666809</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1340883672237396</v>
+        <v>0.0003184303641319275</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.9587018489837646</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.4237095713615417</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3083750307559967</v>
+        <v>0.2862167358398438</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8938717842102051</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.4031054973602295</v>
       </c>
       <c r="W10" t="n">
-        <v>0.06391198933124542</v>
+        <v>0.2408515512943268</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8790328502655029</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.8663522005081177</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2790465354919434</v>
+        <v>0.0001607988815521821</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8729121685028076</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.5446355938911438</v>
       </c>
       <c r="W12" t="n">
-        <v>0.128396213054657</v>
+        <v>0.1077655106782913</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9231510162353516</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.8767630457878113</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1764599531888962</v>
+        <v>0.002151843858882785</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8762860298156738</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.5142539143562317</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1421536952257156</v>
+        <v>0.1310672461986542</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9021298885345459</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.5153214931488037</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2716816961765289</v>
+        <v>0.1496207416057587</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8747210502624512</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.8789640069007874</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0339464358985424</v>
+        <v>1.800268182705622e-05</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.9448649883270264</v>
       </c>
       <c r="V17" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.4979203343391418</v>
       </c>
       <c r="W17" t="n">
-        <v>1.968670858332189e-06</v>
+        <v>0.1997595280408859</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.937993049621582</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.5210167169570923</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1424299776554108</v>
+        <v>0.1738692671060562</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>1.25940990447998</v>
       </c>
       <c r="V19" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.8726715445518494</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1004688441753387</v>
+        <v>0.1495665609836578</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>1.516690015792847</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.5157472491264343</v>
       </c>
       <c r="W20" t="n">
-        <v>1.13640832901001</v>
+        <v>1.001886248588562</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.938385009765625</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.8689348101615906</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1610197424888611</v>
+        <v>0.004823330324143171</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5490059852600098</v>
       </c>
       <c r="V22" t="n">
-        <v>0.381181538105011</v>
+        <v>0.4230952858924866</v>
       </c>
       <c r="W22" t="n">
-        <v>0.02816504426300526</v>
+        <v>0.01585350371897221</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5419609546661377</v>
       </c>
       <c r="V23" t="n">
-        <v>0.541418194770813</v>
+        <v>0.8692247867584229</v>
       </c>
       <c r="W23" t="n">
-        <v>2.945882897620322e-07</v>
+        <v>0.1071016192436218</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5851378440856934</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.5157560706138611</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01869626343250275</v>
+        <v>0.004813830368220806</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5335700511932373</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.5073534250259399</v>
       </c>
       <c r="W25" t="n">
-        <v>1.351865284959786e-05</v>
+        <v>0.000687311461661011</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5451769828796387</v>
       </c>
       <c r="V26" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.8613634705543518</v>
       </c>
       <c r="W26" t="n">
-        <v>0.1608000695705414</v>
+        <v>0.0999738946557045</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5256309509277344</v>
       </c>
       <c r="V27" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.5049680471420288</v>
       </c>
       <c r="W27" t="n">
-        <v>0.006817325484007597</v>
+        <v>0.0004269555793143809</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.524014949798584</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.5064643621444702</v>
       </c>
       <c r="W28" t="n">
-        <v>0.01455496810376644</v>
+        <v>0.0003080231253989041</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5397899150848389</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.4913764595985413</v>
       </c>
       <c r="W29" t="n">
-        <v>2.516215772629948e-06</v>
+        <v>0.002343862783163786</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5469319820404053</v>
       </c>
       <c r="V30" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.3972714841365814</v>
       </c>
       <c r="W30" t="n">
-        <v>0.03847469761967659</v>
+        <v>0.02239826507866383</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5215559005737305</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.3974687457084656</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0003528672677930444</v>
+        <v>0.0153976222500205</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5389750003814697</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.3976274132728577</v>
       </c>
       <c r="W32" t="n">
-        <v>0.007792857009917498</v>
+        <v>0.01997913978993893</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5233540534973145</v>
       </c>
       <c r="V33" t="n">
-        <v>0.534324586391449</v>
+        <v>0.8795058131217957</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0001203525898745283</v>
+        <v>0.1268440783023834</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5361299514770508</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.5006594657897949</v>
       </c>
       <c r="W34" t="n">
-        <v>1.56197552314552e-06</v>
+        <v>0.001258155331015587</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.525860071182251</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.5275602340698242</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01495046727359295</v>
+        <v>2.890553787437966e-06</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5260269641876221</v>
       </c>
       <c r="V36" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.4222443699836731</v>
       </c>
       <c r="W36" t="n">
-        <v>0.03071414865553379</v>
+        <v>0.010770826600492</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5261528491973877</v>
       </c>
       <c r="V37" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.5162862539291382</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1747422218322754</v>
+        <v>9.734970080899075e-05</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5310781002044678</v>
       </c>
       <c r="V38" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.4019457101821899</v>
       </c>
       <c r="W38" t="n">
-        <v>0.01231974363327026</v>
+        <v>0.01667517423629761</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5236918926239014</v>
       </c>
       <c r="V39" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.867706298828125</v>
       </c>
       <c r="W39" t="n">
-        <v>0.07964328676462173</v>
+        <v>0.1183459088206291</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5794110298156738</v>
       </c>
       <c r="V40" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.874662458896637</v>
       </c>
       <c r="W40" t="n">
-        <v>0.00566945830360055</v>
+        <v>0.08717340975999832</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5270490646362305</v>
       </c>
       <c r="V41" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.5159754157066345</v>
       </c>
       <c r="W41" t="n">
-        <v>0.1770906746387482</v>
+        <v>0.0001226257008966058</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3987400531768799</v>
       </c>
       <c r="V42" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.8647305965423584</v>
       </c>
       <c r="W42" t="n">
-        <v>0.01090916525572538</v>
+        <v>0.2171471863985062</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4137330055236816</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.5158423781394958</v>
       </c>
       <c r="W43" t="n">
-        <v>2.689203574846033e-05</v>
+        <v>0.01042632386088371</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3927619457244873</v>
       </c>
       <c r="V44" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.4094875156879425</v>
       </c>
       <c r="W44" t="n">
-        <v>2.822173155436758e-05</v>
+        <v>0.0002797446795739233</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3927068710327148</v>
       </c>
       <c r="V45" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.4135589897632599</v>
       </c>
       <c r="W45" t="n">
-        <v>0.1830738931894302</v>
+        <v>0.0004348108486738056</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.4496729373931885</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.4041671752929688</v>
       </c>
       <c r="W46" t="n">
-        <v>0.002115890616551042</v>
+        <v>0.0020707743242383</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4260520935058594</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.8703317642211914</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0016133738681674</v>
+        <v>0.1973844319581985</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3977460861206055</v>
       </c>
       <c r="V48" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.4031357169151306</v>
       </c>
       <c r="W48" t="n">
-        <v>0.02063386514782906</v>
+        <v>2.90481202682713e-05</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3939359188079834</v>
       </c>
       <c r="V49" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.8840020895004272</v>
       </c>
       <c r="W49" t="n">
-        <v>0.170927107334137</v>
+        <v>0.2401648461818695</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3958051204681396</v>
       </c>
       <c r="V50" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.3991187512874603</v>
       </c>
       <c r="W50" t="n">
-        <v>0.01390201598405838</v>
+        <v>1.098014945455361e-05</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3941810131072998</v>
       </c>
       <c r="V51" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.5158267617225647</v>
       </c>
       <c r="W51" t="n">
-        <v>0.001882959040813148</v>
+        <v>0.01479768846184015</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.4424741268157959</v>
       </c>
       <c r="V52" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.3991908729076385</v>
       </c>
       <c r="W52" t="n">
-        <v>0.04001747444272041</v>
+        <v>0.001873440109193325</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3966560363769531</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.5163776278495789</v>
       </c>
       <c r="W53" t="n">
-        <v>0.06022751331329346</v>
+        <v>0.01433325931429863</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3940250873565674</v>
       </c>
       <c r="V54" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.4986895322799683</v>
       </c>
       <c r="W54" t="n">
-        <v>0.01206847373396158</v>
+        <v>0.01095464639365673</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.396367073059082</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.4237971007823944</v>
       </c>
       <c r="W55" t="n">
-        <v>0.01165180653333664</v>
+        <v>0.0007524064276367426</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3932750225067139</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.3972598910331726</v>
       </c>
       <c r="W56" t="n">
-        <v>0.01180051639676094</v>
+        <v>1.587917722645216e-05</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3882350921630859</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.4228692352771759</v>
       </c>
       <c r="W57" t="n">
-        <v>0.01572931744158268</v>
+        <v>0.001199523918330669</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.4023089408874512</v>
       </c>
       <c r="V58" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.4030202031135559</v>
       </c>
       <c r="W58" t="n">
-        <v>0.1455280631780624</v>
+        <v>5.058939791524608e-07</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3948659896850586</v>
       </c>
       <c r="V59" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.484167218208313</v>
       </c>
       <c r="W59" t="n">
-        <v>0.3097909390926361</v>
+        <v>0.007974709384143353</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3963580131530762</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.5157580971717834</v>
       </c>
       <c r="W60" t="n">
-        <v>0.01160229276865721</v>
+        <v>0.01425638049840927</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3960599899291992</v>
       </c>
       <c r="V61" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.509118914604187</v>
       </c>
       <c r="W61" t="n">
-        <v>0.06015088781714439</v>
+        <v>0.01278232038021088</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8869621753692627</v>
       </c>
       <c r="V62" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.5103597640991211</v>
       </c>
       <c r="W62" t="n">
-        <v>0.06009786576032639</v>
+        <v>0.1418293714523315</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8724710941314697</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.5158864259719849</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1557659953832626</v>
+        <v>0.1271526217460632</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8696370124816895</v>
       </c>
       <c r="V64" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.8852559924125671</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2692153751850128</v>
+        <v>0.0002439525269437581</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8761568069458008</v>
       </c>
       <c r="V65" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.4881572425365448</v>
       </c>
       <c r="W65" t="n">
-        <v>0.250385969877243</v>
+        <v>0.1505436599254608</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8929910659790039</v>
       </c>
       <c r="V66" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.5084819793701172</v>
       </c>
       <c r="W66" t="n">
-        <v>0.2620610892772675</v>
+        <v>0.1478472352027893</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8691060543060303</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.8587015271186829</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1250336915254593</v>
+        <v>0.0001082541857613251</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9075441360473633</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.3991539776325226</v>
       </c>
       <c r="W68" t="n">
-        <v>0.07016012072563171</v>
+        <v>0.2584605813026428</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8740408420562744</v>
       </c>
       <c r="V69" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.4118276834487915</v>
       </c>
       <c r="W69" t="n">
-        <v>0.04806056246161461</v>
+        <v>0.2136410027742386</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8886280059814453</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.5159801244735718</v>
       </c>
       <c r="W70" t="n">
-        <v>0.09004782885313034</v>
+        <v>0.1388664394617081</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.9271600246429443</v>
       </c>
       <c r="V71" t="n">
-        <v>0.672019362449646</v>
+        <v>0.4223918616771698</v>
       </c>
       <c r="W71" t="n">
-        <v>0.06509675830602646</v>
+        <v>0.254790872335434</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8688631057739258</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.5236308574676514</v>
       </c>
       <c r="W72" t="n">
-        <v>0.2164257168769836</v>
+        <v>0.1191853061318398</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8749961853027344</v>
       </c>
       <c r="V73" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.5139434933662415</v>
       </c>
       <c r="W73" t="n">
-        <v>0.04934398829936981</v>
+        <v>0.1303590536117554</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8785560131072998</v>
       </c>
       <c r="V74" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.4029344320297241</v>
       </c>
       <c r="W74" t="n">
-        <v>0.2579188048839569</v>
+        <v>0.2262158840894699</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.9640328884124756</v>
       </c>
       <c r="V75" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.3974649906158447</v>
       </c>
       <c r="W75" t="n">
-        <v>0.0002678344026207924</v>
+        <v>0.3209991753101349</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8939120769500732</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.8630530834197998</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1306519359350204</v>
+        <v>0.0009522775071673095</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8707830905914307</v>
       </c>
       <c r="V77" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.5093673467636108</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1177059635519981</v>
+        <v>0.1306213438510895</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8731839656829834</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.403075098991394</v>
       </c>
       <c r="W78" t="n">
-        <v>0.09687891602516174</v>
+        <v>0.2210023403167725</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.9325888156890869</v>
       </c>
       <c r="V79" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.5159894824028015</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1383500248193741</v>
+        <v>0.173555001616478</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8678898811340332</v>
       </c>
       <c r="V80" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.515883207321167</v>
       </c>
       <c r="W80" t="n">
-        <v>0.2425675839185715</v>
+        <v>0.1239086985588074</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8697571754455566</v>
       </c>
       <c r="V81" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.3972334563732147</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1330919861793518</v>
+        <v>0.223278671503067</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5568859577178955</v>
       </c>
       <c r="V82" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.8705080151557922</v>
       </c>
       <c r="W82" t="n">
-        <v>0.001847245846875012</v>
+        <v>0.09835879504680634</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5416650772094727</v>
       </c>
       <c r="V83" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.4007285833358765</v>
       </c>
       <c r="W83" t="n">
-        <v>5.169337237020954e-05</v>
+        <v>0.01986309513449669</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5204131603240967</v>
       </c>
       <c r="V84" t="n">
-        <v>0.654166579246521</v>
+        <v>0.8727410435676575</v>
       </c>
       <c r="W84" t="n">
-        <v>0.01788997650146484</v>
+        <v>0.124134935438633</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5267789363861084</v>
       </c>
       <c r="V85" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.4123713672161102</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0001662653521634638</v>
+        <v>0.01308909151703119</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5216360092163086</v>
       </c>
       <c r="V86" t="n">
-        <v>0.65655517578125</v>
+        <v>0.3972760736942291</v>
       </c>
       <c r="W86" t="n">
-        <v>0.01820318214595318</v>
+        <v>0.0154653936624527</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5195479393005371</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.5160202383995056</v>
       </c>
       <c r="W87" t="n">
-        <v>0.001766348606906831</v>
+        <v>1.244467330252519e-05</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5234050750732422</v>
       </c>
       <c r="V88" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.879597544670105</v>
       </c>
       <c r="W88" t="n">
-        <v>0.01707987114787102</v>
+        <v>0.1268730759620667</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5823941230773926</v>
       </c>
       <c r="V89" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.507446825504303</v>
       </c>
       <c r="W89" t="n">
-        <v>0.04967730492353439</v>
+        <v>0.005617097485810518</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5251171588897705</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.5067266225814819</v>
       </c>
       <c r="W90" t="n">
-        <v>0.005543119739741087</v>
+        <v>0.000338211830239743</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5282690525054932</v>
       </c>
       <c r="V91" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.5082606077194214</v>
       </c>
       <c r="W91" t="n">
-        <v>0.07394364476203918</v>
+        <v>0.0004003378562629223</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5239849090576172</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.8973962068557739</v>
       </c>
       <c r="W92" t="n">
-        <v>0.0001702796871541068</v>
+        <v>0.1394359916448593</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5239300727844238</v>
       </c>
       <c r="V93" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.8642186522483826</v>
       </c>
       <c r="W93" t="n">
-        <v>0.001357903121970594</v>
+        <v>0.1157963201403618</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5278730392456055</v>
       </c>
       <c r="V94" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.8671513795852661</v>
       </c>
       <c r="W94" t="n">
-        <v>0.06506384909152985</v>
+        <v>0.1151097938418388</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5188009738922119</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.3972426652908325</v>
       </c>
       <c r="W95" t="n">
-        <v>0.01325865834951401</v>
+        <v>0.01477642264217138</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5258519649505615</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.3972844779491425</v>
       </c>
       <c r="W96" t="n">
-        <v>0.000248875847319141</v>
+        <v>0.01652959920465946</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5227510929107666</v>
       </c>
       <c r="V97" t="n">
-        <v>0.946087121963501</v>
+        <v>0.3972524404525757</v>
       </c>
       <c r="W97" t="n">
-        <v>0.1792133897542953</v>
+        <v>0.01574991084635258</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5279080867767334</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.4219988584518433</v>
       </c>
       <c r="W98" t="n">
-        <v>5.741327413488762e-10</v>
+        <v>0.01121676433831453</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5220367908477783</v>
       </c>
       <c r="V99" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.873289942741394</v>
       </c>
       <c r="W99" t="n">
-        <v>0.02289178408682346</v>
+        <v>0.1233787760138512</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5400731563568115</v>
       </c>
       <c r="V100" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.8700716495513916</v>
       </c>
       <c r="W100" t="n">
-        <v>0.03583206608891487</v>
+        <v>0.1088990047574043</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5267329216003418</v>
       </c>
       <c r="V101" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.397243320941925</v>
       </c>
       <c r="W101" t="n">
-        <v>0.02456042356789112</v>
+        <v>0.01676755584776402</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4150691032409668</v>
       </c>
       <c r="V102" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.4342341423034668</v>
       </c>
       <c r="W102" t="n">
-        <v>0.001575006521306932</v>
+        <v>0.0003672987222671509</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4059710502624512</v>
       </c>
       <c r="V103" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.3972912430763245</v>
       </c>
       <c r="W103" t="n">
-        <v>0.06295088678598404</v>
+        <v>7.533905591117218e-05</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4022119045257568</v>
       </c>
       <c r="V104" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.5159246325492859</v>
       </c>
       <c r="W104" t="n">
-        <v>0.009537989273667336</v>
+        <v>0.01293058414012194</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4207131862640381</v>
       </c>
       <c r="V105" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.5194257497787476</v>
       </c>
       <c r="W105" t="n">
-        <v>0.0002900716790463775</v>
+        <v>0.009744170121848583</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.39255690574646</v>
       </c>
       <c r="V106" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.8686172962188721</v>
       </c>
       <c r="W106" t="n">
-        <v>0.001746297697536647</v>
+        <v>0.2266334891319275</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3963751792907715</v>
       </c>
       <c r="V107" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.5148693323135376</v>
       </c>
       <c r="W107" t="n">
-        <v>0.002078617690131068</v>
+        <v>0.01404086407274008</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3937528133392334</v>
       </c>
       <c r="V108" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.8793161511421204</v>
       </c>
       <c r="W108" t="n">
-        <v>0.001847489271312952</v>
+        <v>0.2357717603445053</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.395982027053833</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.3972642123699188</v>
       </c>
       <c r="W109" t="n">
-        <v>0.002975782845169306</v>
+        <v>1.643999212319613e-06</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3957040309906006</v>
       </c>
       <c r="V110" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.5110203623771667</v>
       </c>
       <c r="W110" t="n">
-        <v>7.697335968259722e-05</v>
+        <v>0.01329785585403442</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3968808650970459</v>
       </c>
       <c r="V111" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.868037223815918</v>
       </c>
       <c r="W111" t="n">
-        <v>0.1707582026720047</v>
+        <v>0.221988320350647</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4460499286651611</v>
       </c>
       <c r="V112" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.8688129186630249</v>
       </c>
       <c r="W112" t="n">
-        <v>0.1141502559185028</v>
+        <v>0.1787285506725311</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.4010078907012939</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.4919662177562714</v>
       </c>
       <c r="W113" t="n">
-        <v>0.03969243168830872</v>
+        <v>0.008273417130112648</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.395226001739502</v>
       </c>
       <c r="V114" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.403034508228302</v>
       </c>
       <c r="W114" t="n">
-        <v>0.001834806287661195</v>
+        <v>6.097277218941599e-05</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.4001700878143311</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.3992683589458466</v>
       </c>
       <c r="W115" t="n">
-        <v>1.193052594317123e-05</v>
+        <v>8.131149797918624e-07</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3981449604034424</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.8779143691062927</v>
       </c>
       <c r="W116" t="n">
-        <v>2.963573206216097e-05</v>
+        <v>0.2301786839962006</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3904159069061279</v>
       </c>
       <c r="V117" t="n">
-        <v>0.782903790473938</v>
+        <v>0.4112921357154846</v>
       </c>
       <c r="W117" t="n">
-        <v>0.1540467441082001</v>
+        <v>0.0004358169389888644</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4669492244720459</v>
       </c>
       <c r="V118" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.410689115524292</v>
       </c>
       <c r="W118" t="n">
-        <v>0.005508015863597393</v>
+        <v>0.003165199887007475</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3957831859588623</v>
       </c>
       <c r="V119" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.8546851873397827</v>
       </c>
       <c r="W119" t="n">
-        <v>0.01399702485650778</v>
+        <v>0.210591048002243</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3995671272277832</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.8713930249214172</v>
       </c>
       <c r="W120" t="n">
-        <v>0.02605775929987431</v>
+        <v>0.2226196825504303</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3945350646972656</v>
       </c>
       <c r="V121" t="n">
-        <v>0.375304102897644</v>
+        <v>0.5180147886276245</v>
       </c>
       <c r="W121" t="n">
-        <v>0.000369829882401973</v>
+        <v>0.01524724252521992</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8897221088409424</v>
       </c>
       <c r="V122" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.5114955902099609</v>
       </c>
       <c r="W122" t="n">
-        <v>0.05442069843411446</v>
+        <v>0.1430553048849106</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9937980175018311</v>
       </c>
       <c r="V123" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.8729706406593323</v>
       </c>
       <c r="W123" t="n">
-        <v>0.2406381666660309</v>
+        <v>0.01459925528615713</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8981039524078369</v>
       </c>
       <c r="V124" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.4030710160732269</v>
       </c>
       <c r="W124" t="n">
-        <v>0.05918158963322639</v>
+        <v>0.245057612657547</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8838739395141602</v>
       </c>
       <c r="V125" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.4029421210289001</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1743736863136292</v>
+        <v>0.2312954068183899</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8969249725341797</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.5078331232070923</v>
       </c>
       <c r="W126" t="n">
-        <v>0.1541012525558472</v>
+        <v>0.1513924598693848</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.9343900680541992</v>
       </c>
       <c r="V127" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.3991003036499023</v>
       </c>
       <c r="W127" t="n">
-        <v>6.696933269267902e-05</v>
+        <v>0.2865351438522339</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8711130619049072</v>
       </c>
       <c r="V128" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.404195636510849</v>
       </c>
       <c r="W128" t="n">
-        <v>0.005092809908092022</v>
+        <v>0.218011885881424</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.869624137878418</v>
       </c>
       <c r="V129" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.4023973941802979</v>
       </c>
       <c r="W129" t="n">
-        <v>0.2674886882305145</v>
+        <v>0.2183008342981339</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8828458786010742</v>
       </c>
       <c r="V130" t="n">
-        <v>0.514474630355835</v>
+        <v>0.4954426288604736</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1356973797082901</v>
+        <v>0.1500812768936157</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.9320499897003174</v>
       </c>
       <c r="V131" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.5244255065917969</v>
       </c>
       <c r="W131" t="n">
-        <v>0.08420967310667038</v>
+        <v>0.1661577224731445</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8754210472106934</v>
       </c>
       <c r="V132" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.8815462589263916</v>
       </c>
       <c r="W132" t="n">
-        <v>0.2457535415887833</v>
+        <v>3.751821714104153e-05</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8792459964752197</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.8658060431480408</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1330876797437668</v>
+        <v>0.0001806323416531086</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8755419254302979</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.4007598161697388</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1379023194313049</v>
+        <v>0.2254180461168289</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.9424901008605957</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.8794363737106323</v>
       </c>
       <c r="W135" t="n">
-        <v>0.2904069423675537</v>
+        <v>0.003975772298872471</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.875154972076416</v>
       </c>
       <c r="V136" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.5098671913146973</v>
       </c>
       <c r="W136" t="n">
-        <v>0.2732425332069397</v>
+        <v>0.1334351599216461</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8716340065002441</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.5169214606285095</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1552461236715317</v>
+        <v>0.1258209943771362</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8704140186309814</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.4018985331058502</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1266542375087738</v>
+        <v>0.2195067554712296</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.936373233795166</v>
       </c>
       <c r="V139" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.4102683067321777</v>
       </c>
       <c r="W139" t="n">
-        <v>0.2840305268764496</v>
+        <v>0.2767863869667053</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8758339881896973</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.4042630791664124</v>
       </c>
       <c r="W140" t="n">
-        <v>0.07161470502614975</v>
+        <v>0.2223791182041168</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8736388683319092</v>
       </c>
       <c r="V141" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.3976234197616577</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1293376684188843</v>
+        <v>0.22659070789814</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5367980003356934</v>
       </c>
       <c r="V142" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.8714266419410706</v>
       </c>
       <c r="W142" t="n">
-        <v>0.0604744479060173</v>
+        <v>0.1119763255119324</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5830550193786621</v>
       </c>
       <c r="V143" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.3972580432891846</v>
       </c>
       <c r="W143" t="n">
-        <v>0.03961125016212463</v>
+        <v>0.03452051803469658</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5311100482940674</v>
       </c>
       <c r="V144" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.3974546790122986</v>
       </c>
       <c r="W144" t="n">
-        <v>0.0001040331844706088</v>
+        <v>0.01786375790834427</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5249888896942139</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.8906943202018738</v>
       </c>
       <c r="W145" t="n">
-        <v>0.002203016541898251</v>
+        <v>0.1337404549121857</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5285849571228027</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.5397417545318604</v>
       </c>
       <c r="W146" t="n">
-        <v>0.0007290745852515101</v>
+        <v>0.0001244741288246587</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5333991050720215</v>
       </c>
       <c r="V147" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.8716570734977722</v>
       </c>
       <c r="W147" t="n">
-        <v>0.06227228045463562</v>
+        <v>0.1144184544682503</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5285530090332031</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.397280216217041</v>
       </c>
       <c r="W148" t="n">
-        <v>7.922992517706007e-05</v>
+        <v>0.01723254658281803</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.526259183883667</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.42287477850914</v>
       </c>
       <c r="W149" t="n">
-        <v>6.39230347587727e-05</v>
+        <v>0.01068833563476801</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5314209461212158</v>
       </c>
       <c r="V150" t="n">
-        <v>0.504324197769165</v>
+        <v>0.5148814916610718</v>
       </c>
       <c r="W150" t="n">
-        <v>0.0007342337630689144</v>
+        <v>0.0002735535672400147</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5219159126281738</v>
       </c>
       <c r="V151" t="n">
-        <v>0.531548023223877</v>
+        <v>0.4237269163131714</v>
       </c>
       <c r="W151" t="n">
-        <v>9.277755452785641e-05</v>
+        <v>0.009641079232096672</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5245277881622314</v>
       </c>
       <c r="V152" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.864765465259552</v>
       </c>
       <c r="W152" t="n">
-        <v>0.1746347993612289</v>
+        <v>0.1157616749405861</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5265259742736816</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.3972761929035187</v>
       </c>
       <c r="W153" t="n">
-        <v>0.01510947477072477</v>
+        <v>0.01670550554990768</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5716469287872314</v>
       </c>
       <c r="V154" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.8619605898857117</v>
       </c>
       <c r="W154" t="n">
-        <v>0.0009948265505954623</v>
+        <v>0.08428201824426651</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5299220085144043</v>
       </c>
       <c r="V155" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.8906541466712952</v>
       </c>
       <c r="W155" t="n">
-        <v>0.03209157660603523</v>
+        <v>0.1301276683807373</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5253429412841797</v>
       </c>
       <c r="V156" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.4043348729610443</v>
       </c>
       <c r="W156" t="n">
-        <v>0.0001290588406845927</v>
+        <v>0.01464295294135809</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5179848670959473</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.3991893827915192</v>
       </c>
       <c r="W157" t="n">
-        <v>0.003377353772521019</v>
+        <v>0.01411236729472876</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5267429351806641</v>
       </c>
       <c r="V158" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.4007804989814758</v>
       </c>
       <c r="W158" t="n">
-        <v>0.0005210242816247046</v>
+        <v>0.01586653478443623</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.521622896194458</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.8851791620254517</v>
       </c>
       <c r="W159" t="n">
-        <v>0.003057628171518445</v>
+        <v>0.132173165678978</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5233471393585205</v>
       </c>
       <c r="V160" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.8715851306915283</v>
       </c>
       <c r="W160" t="n">
-        <v>0.08448407799005508</v>
+        <v>0.1212696954607964</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5269260406494141</v>
       </c>
       <c r="V161" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.397265613079071</v>
       </c>
       <c r="W161" t="n">
-        <v>0.07923103123903275</v>
+        <v>0.01681182719767094</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3999547958374023</v>
       </c>
       <c r="V162" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.8866537809371948</v>
       </c>
       <c r="W162" t="n">
-        <v>0.07984984666109085</v>
+        <v>0.236875906586647</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.4008548259735107</v>
       </c>
       <c r="V163" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.8695632815361023</v>
       </c>
       <c r="W163" t="n">
-        <v>0.07357068359851837</v>
+        <v>0.2196876108646393</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3978359699249268</v>
       </c>
       <c r="V164" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.5083107352256775</v>
       </c>
       <c r="W164" t="n">
-        <v>0.08565092086791992</v>
+        <v>0.01220467407256365</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.4433770179748535</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.5156171917915344</v>
       </c>
       <c r="W165" t="n">
-        <v>0.004962422419339418</v>
+        <v>0.005218642763793468</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3995380401611328</v>
       </c>
       <c r="V166" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.4057263731956482</v>
       </c>
       <c r="W166" t="n">
-        <v>0.1474336236715317</v>
+        <v>3.829546403721906e-05</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3974969387054443</v>
       </c>
       <c r="V167" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.4025207459926605</v>
       </c>
       <c r="W167" t="n">
-        <v>0.1488256454467773</v>
+        <v>2.523863986425567e-05</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3983309268951416</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.8637083768844604</v>
       </c>
       <c r="W168" t="n">
-        <v>0.00272858003154397</v>
+        <v>0.2165761739015579</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.4111289978027344</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.5163878202438354</v>
       </c>
       <c r="W169" t="n">
-        <v>0.001391653902828693</v>
+        <v>0.01107941940426826</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3988070487976074</v>
       </c>
       <c r="V170" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.870013415813446</v>
       </c>
       <c r="W170" t="n">
-        <v>0.01779551804065704</v>
+        <v>0.2220354378223419</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3976080417633057</v>
       </c>
       <c r="V171" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.8745479583740234</v>
       </c>
       <c r="W171" t="n">
-        <v>0.0007242046413011849</v>
+        <v>0.2274716794490814</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4016599655151367</v>
       </c>
       <c r="V172" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.4029116630554199</v>
       </c>
       <c r="W172" t="n">
-        <v>0.01064366288483143</v>
+        <v>1.566746732351021e-06</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3991079330444336</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.4980349838733673</v>
       </c>
       <c r="W173" t="n">
-        <v>0.002437490271404386</v>
+        <v>0.009786561131477356</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4213919639587402</v>
       </c>
       <c r="V174" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.410134494304657</v>
       </c>
       <c r="W174" t="n">
-        <v>0.001645102049224079</v>
+        <v>0.0001267306215595454</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3998570442199707</v>
       </c>
       <c r="V175" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.898224413394928</v>
       </c>
       <c r="W175" t="n">
-        <v>0.1657999753952026</v>
+        <v>0.248370036482811</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.4042558670043945</v>
       </c>
       <c r="V176" t="n">
-        <v>0.944080114364624</v>
+        <v>0.8649730682373047</v>
       </c>
       <c r="W176" t="n">
-        <v>0.2914102077484131</v>
+        <v>0.2122603356838226</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4181950092315674</v>
       </c>
       <c r="V177" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.3991158604621887</v>
       </c>
       <c r="W177" t="n">
-        <v>0.01286201644688845</v>
+        <v>0.0003640139184426516</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3984708786010742</v>
       </c>
       <c r="V178" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.5053423047065735</v>
       </c>
       <c r="W178" t="n">
-        <v>0.1676252335309982</v>
+        <v>0.01142150163650513</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3984289169311523</v>
       </c>
       <c r="V179" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.3972785472869873</v>
       </c>
       <c r="W179" t="n">
-        <v>2.765841054497287e-05</v>
+        <v>1.32335026137298e-06</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3977501392364502</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.5174573659896851</v>
       </c>
       <c r="W180" t="n">
-        <v>3.484547414700501e-05</v>
+        <v>0.01432981994003057</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4098081588745117</v>
       </c>
       <c r="V181" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.891901433467865</v>
       </c>
       <c r="W181" t="n">
-        <v>0.06077824532985687</v>
+        <v>0.2324139326810837</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.9138419628143311</v>
       </c>
       <c r="V182" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.8730527758598328</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1387232542037964</v>
+        <v>0.001663757720962167</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>1.059429883956909</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.8637213706970215</v>
       </c>
       <c r="W183" t="n">
-        <v>0.2754343152046204</v>
+        <v>0.03830182179808617</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8854150772094727</v>
       </c>
       <c r="V184" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.8691104054450989</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1380817145109177</v>
+        <v>0.0002658423327375203</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.876882791519165</v>
       </c>
       <c r="V185" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.4013513624668121</v>
       </c>
       <c r="W185" t="n">
-        <v>0.112409844994545</v>
+        <v>0.2261301428079605</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8744971752166748</v>
       </c>
       <c r="V186" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.5123099684715271</v>
       </c>
       <c r="W186" t="n">
-        <v>0.04914664104580879</v>
+        <v>0.1311795711517334</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8969740867614746</v>
       </c>
       <c r="V187" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.5017461776733398</v>
       </c>
       <c r="W187" t="n">
-        <v>0.05768369138240814</v>
+        <v>0.1562051028013229</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8783450126647949</v>
       </c>
       <c r="V188" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.4127848446369171</v>
       </c>
       <c r="W188" t="n">
-        <v>0.003908306825906038</v>
+        <v>0.2167462706565857</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8763570785522461</v>
       </c>
       <c r="V189" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.5108301639556885</v>
       </c>
       <c r="W189" t="n">
-        <v>0.04165428504347801</v>
+        <v>0.1336099207401276</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8776209354400635</v>
       </c>
       <c r="V190" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.8686956167221069</v>
       </c>
       <c r="W190" t="n">
-        <v>0.008983264677226543</v>
+        <v>7.9661316704005e-05</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.900536060333252</v>
       </c>
       <c r="V191" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.4031263589859009</v>
       </c>
       <c r="W191" t="n">
-        <v>0.3022255003452301</v>
+        <v>0.2474164068698883</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8763070106506348</v>
       </c>
       <c r="V192" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.5219179391860962</v>
       </c>
       <c r="W192" t="n">
-        <v>0.2765316963195801</v>
+        <v>0.1255916208028793</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8742308616638184</v>
       </c>
       <c r="V193" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.5159491896629333</v>
       </c>
       <c r="W193" t="n">
-        <v>0.03672900423407555</v>
+        <v>0.1283657550811768</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8772718906402588</v>
       </c>
       <c r="V194" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.3974460363388062</v>
       </c>
       <c r="W194" t="n">
-        <v>0.03200487047433853</v>
+        <v>0.2302328497171402</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.876823902130127</v>
       </c>
       <c r="V195" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.4865326881408691</v>
       </c>
       <c r="W195" t="n">
-        <v>0.008601934649050236</v>
+        <v>0.152327224612236</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8722898960113525</v>
       </c>
       <c r="V196" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.8960320949554443</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1274333298206329</v>
+        <v>0.00056369201047346</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8927888870239258</v>
       </c>
       <c r="V197" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.3991323411464691</v>
       </c>
       <c r="W197" t="n">
-        <v>0.003036387031897902</v>
+        <v>0.2436967790126801</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.9061059951782227</v>
       </c>
       <c r="V198" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.5074652433395386</v>
       </c>
       <c r="W198" t="n">
-        <v>0.06900613754987717</v>
+        <v>0.1589144468307495</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8935010433197021</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.8746138215065002</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1543922275304794</v>
+        <v>0.0003567271342035383</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8691251277923584</v>
       </c>
       <c r="V200" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.8794419169425964</v>
       </c>
       <c r="W200" t="n">
-        <v>0.05038277432322502</v>
+        <v>0.0001064361349563114</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8828659057617188</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.5077205896377563</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1439608782529831</v>
+        <v>0.140734001994133</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5281620025634766</v>
       </c>
       <c r="V202" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.8685943484306335</v>
       </c>
       <c r="W202" t="n">
-        <v>0.01813010685145855</v>
+        <v>0.1158941835165024</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5232300758361816</v>
       </c>
       <c r="V203" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.5404525995254517</v>
       </c>
       <c r="W203" t="n">
-        <v>0.002879603998735547</v>
+        <v>0.0002966153260786086</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5424840450286865</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.8724854588508606</v>
       </c>
       <c r="W204" t="n">
-        <v>0.01928842812776566</v>
+        <v>0.1089009344577789</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5254621505737305</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.5100266933441162</v>
       </c>
       <c r="W205" t="n">
-        <v>0.01386647764593363</v>
+        <v>0.0002382533421041444</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5266590118408203</v>
       </c>
       <c r="V206" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.5064737796783447</v>
       </c>
       <c r="W206" t="n">
-        <v>0.08140650391578674</v>
+        <v>0.0004074435855727643</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5355939865112305</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.397243857383728</v>
       </c>
       <c r="W207" t="n">
-        <v>0.0004447893879842013</v>
+        <v>0.01914075762033463</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5759999752044678</v>
       </c>
       <c r="V208" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.5159884691238403</v>
       </c>
       <c r="W208" t="n">
-        <v>0.004270894452929497</v>
+        <v>0.003601380856707692</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5247800350189209</v>
       </c>
       <c r="V209" t="n">
-        <v>0.672245979309082</v>
+        <v>0.5159204006195068</v>
       </c>
       <c r="W209" t="n">
-        <v>0.02174620516598225</v>
+        <v>7.849311805330217e-05</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5281009674072266</v>
       </c>
       <c r="V210" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.8641586899757385</v>
       </c>
       <c r="W210" t="n">
-        <v>0.01559546496719122</v>
+        <v>0.1129347905516624</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5285990238189697</v>
       </c>
       <c r="V211" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.8615958094596863</v>
       </c>
       <c r="W211" t="n">
-        <v>0.00362143968231976</v>
+        <v>0.1108868569135666</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5227119922637939</v>
       </c>
       <c r="V212" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.4972806572914124</v>
       </c>
       <c r="W212" t="n">
-        <v>0.01426247972995043</v>
+        <v>0.0006467527709901333</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.55399489402771</v>
       </c>
       <c r="V213" t="n">
-        <v>0.350454181432724</v>
+        <v>0.4030354022979736</v>
       </c>
       <c r="W213" t="n">
-        <v>0.0414288230240345</v>
+        <v>0.0227887686342001</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5322661399841309</v>
       </c>
       <c r="V214" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.4247643947601318</v>
       </c>
       <c r="W214" t="n">
-        <v>0.06311094015836716</v>
+        <v>0.01155662536621094</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5321099758148193</v>
       </c>
       <c r="V215" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.8972719311714172</v>
       </c>
       <c r="W215" t="n">
-        <v>0.02278413437306881</v>
+        <v>0.1333432495594025</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5320541858673096</v>
       </c>
       <c r="V216" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.5141171216964722</v>
       </c>
       <c r="W216" t="n">
-        <v>0.02265963330864906</v>
+        <v>0.0003217382763978094</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5239830017089844</v>
       </c>
       <c r="V217" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.8657912611961365</v>
       </c>
       <c r="W217" t="n">
-        <v>0.0001058515335898846</v>
+        <v>0.1168328896164894</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5320918560028076</v>
       </c>
       <c r="V218" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.8773630857467651</v>
       </c>
       <c r="W218" t="n">
-        <v>0.01507000252604485</v>
+        <v>0.1192122250795364</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5304038524627686</v>
       </c>
       <c r="V219" t="n">
-        <v>0.54131019115448</v>
+        <v>0.4031344950199127</v>
       </c>
       <c r="W219" t="n">
-        <v>0.0001189482209156267</v>
+        <v>0.01619748957455158</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5284748077392578</v>
       </c>
       <c r="V220" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.8987327218055725</v>
       </c>
       <c r="W220" t="n">
-        <v>0.03174803033471107</v>
+        <v>0.1370909214019775</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5291659832000732</v>
       </c>
       <c r="V221" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.8712707757949829</v>
       </c>
       <c r="W221" t="n">
-        <v>0.03182290494441986</v>
+        <v>0.1170356869697571</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3965609073638916</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.8628662824630737</v>
       </c>
       <c r="W222" t="n">
-        <v>4.6186862164177e-05</v>
+        <v>0.2174407094717026</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.4020388126373291</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.8752091526985168</v>
       </c>
       <c r="W223" t="n">
-        <v>0.01044250745326281</v>
+        <v>0.2238901704549789</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3959829807281494</v>
       </c>
       <c r="V224" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.4225695729255676</v>
       </c>
       <c r="W224" t="n">
-        <v>0.1704950481653214</v>
+        <v>0.0007068468839861453</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3968210220336914</v>
       </c>
       <c r="V225" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.875249445438385</v>
       </c>
       <c r="W225" t="n">
-        <v>0.002157573821023107</v>
+        <v>0.2288937568664551</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.4008128643035889</v>
       </c>
       <c r="V226" t="n">
-        <v>0.654965877532959</v>
+        <v>0.4090614318847656</v>
       </c>
       <c r="W226" t="n">
-        <v>0.06459375470876694</v>
+        <v>6.803886935813352e-05</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.4058020114898682</v>
       </c>
       <c r="V227" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.5183134078979492</v>
       </c>
       <c r="W227" t="n">
-        <v>0.003027010709047318</v>
+        <v>0.01265881396830082</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4005289077758789</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.8678210973739624</v>
       </c>
       <c r="W228" t="n">
-        <v>0.005976623389869928</v>
+        <v>0.2183619886636734</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4071900844573975</v>
       </c>
       <c r="V229" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.5063554048538208</v>
       </c>
       <c r="W229" t="n">
-        <v>0.008957781828939915</v>
+        <v>0.009833760559558868</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.4014549255371094</v>
       </c>
       <c r="V230" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.4236999750137329</v>
       </c>
       <c r="W230" t="n">
-        <v>0.08766660839319229</v>
+        <v>0.0004948422429151833</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.399465799331665</v>
       </c>
       <c r="V231" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.522540271282196</v>
       </c>
       <c r="W231" t="n">
-        <v>0.06524642556905746</v>
+        <v>0.0151473255828023</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.423166036605835</v>
       </c>
       <c r="V232" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.506928563117981</v>
       </c>
       <c r="W232" t="n">
-        <v>0.006182784680277109</v>
+        <v>0.007016160991042852</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4035780429840088</v>
       </c>
       <c r="V233" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.8717749714851379</v>
       </c>
       <c r="W233" t="n">
-        <v>0.005483708344399929</v>
+        <v>0.2192083597183228</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.401951789855957</v>
       </c>
       <c r="V234" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.8748047947883606</v>
       </c>
       <c r="W234" t="n">
-        <v>0.0007241484709084034</v>
+        <v>0.2235899716615677</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4051239490509033</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.5077981948852539</v>
       </c>
       <c r="W235" t="n">
-        <v>0.0185589361935854</v>
+        <v>0.01054200064390898</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4031229019165039</v>
       </c>
       <c r="V236" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.3974625468254089</v>
       </c>
       <c r="W236" t="n">
-        <v>0.1658631861209869</v>
+        <v>3.20396211463958e-05</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4201900959014893</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.8702723979949951</v>
       </c>
       <c r="W237" t="n">
-        <v>0.0002753971784841269</v>
+        <v>0.2025740742683411</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3967459201812744</v>
       </c>
       <c r="V238" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.4929552376270294</v>
       </c>
       <c r="W238" t="n">
-        <v>0.08164681494235992</v>
+        <v>0.009256232529878616</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3987691402435303</v>
       </c>
       <c r="V239" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.8644481897354126</v>
       </c>
       <c r="W239" t="n">
-        <v>0.08900979161262512</v>
+        <v>0.2168569713830948</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3924760818481445</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.4107418358325958</v>
       </c>
       <c r="W240" t="n">
-        <v>0.0001253835071111098</v>
+        <v>0.0003336377558298409</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4018580913543701</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.8634312152862549</v>
       </c>
       <c r="W241" t="n">
-        <v>0.004143328871577978</v>
+        <v>0.2130497545003891</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8965730667114258</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.5135592222213745</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1989346444606781</v>
+        <v>0.1466996073722839</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9089839458465576</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.4113180637359619</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1856031864881516</v>
+        <v>0.2476713359355927</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8760650157928467</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.4981113076210022</v>
       </c>
       <c r="W244" t="n">
-        <v>0.2234469205141068</v>
+        <v>0.1428489983081818</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8791601657867432</v>
       </c>
       <c r="V245" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.3972586691379547</v>
       </c>
       <c r="W245" t="n">
-        <v>0.2535680532455444</v>
+        <v>0.2322290539741516</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9324619770050049</v>
       </c>
       <c r="V246" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.5148157477378845</v>
       </c>
       <c r="W246" t="n">
-        <v>0.118132509291172</v>
+        <v>0.1744283735752106</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8800458908081055</v>
       </c>
       <c r="V247" t="n">
-        <v>0.514564037322998</v>
+        <v>0.8729413151741028</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1335769891738892</v>
+        <v>5.047499507782049e-05</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8793540000915527</v>
       </c>
       <c r="V248" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.4041297435760498</v>
       </c>
       <c r="W248" t="n">
-        <v>0.08455990999937057</v>
+        <v>0.2258380949497223</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8786931037902832</v>
       </c>
       <c r="V249" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.8640392422676086</v>
       </c>
       <c r="W249" t="n">
-        <v>0.2256115227937698</v>
+        <v>0.0002147356572095305</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9309940338134766</v>
       </c>
       <c r="V250" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.5076349377632141</v>
       </c>
       <c r="W250" t="n">
-        <v>0.0002334495075047016</v>
+        <v>0.1792329251766205</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8892269134521484</v>
       </c>
       <c r="V251" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.8943451642990112</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1482550948858261</v>
+        <v>2.619649239932187e-05</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8891749382019043</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.5088486671447754</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1209618672728539</v>
+        <v>0.1446480751037598</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8780548572540283</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.898705780506134</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1226023435592651</v>
+        <v>0.0004264606395736337</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9389069080352783</v>
       </c>
       <c r="V254" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.8639522790908813</v>
       </c>
       <c r="W254" t="n">
-        <v>0.01664889231324196</v>
+        <v>0.005618196446448565</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8801581859588623</v>
       </c>
       <c r="V255" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.4116093516349792</v>
       </c>
       <c r="W255" t="n">
-        <v>0.2802332937717438</v>
+        <v>0.2195380032062531</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8771109580993652</v>
       </c>
       <c r="V256" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.892840564250946</v>
       </c>
       <c r="W256" t="n">
-        <v>0.04854893311858177</v>
+        <v>0.0002474205102771521</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8745999336242676</v>
       </c>
       <c r="V257" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.4957915544509888</v>
       </c>
       <c r="W257" t="n">
-        <v>0.004438779316842556</v>
+        <v>0.1434957832098007</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9290149211883545</v>
       </c>
       <c r="V258" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.8673936128616333</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1254798620939255</v>
+        <v>0.003797185607254505</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8823690414428711</v>
       </c>
       <c r="V259" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.5079085826873779</v>
       </c>
       <c r="W259" t="n">
-        <v>0.05280715599656105</v>
+        <v>0.1402206420898438</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8781278133392334</v>
       </c>
       <c r="V260" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.4043284356594086</v>
       </c>
       <c r="W260" t="n">
-        <v>0.2528272569179535</v>
+        <v>0.224485844373703</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8748369216918945</v>
       </c>
       <c r="V261" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.8715628981590271</v>
       </c>
       <c r="W261" t="n">
-        <v>0.005589426029473543</v>
+        <v>1.071922997653019e-05</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5938420295715332</v>
       </c>
       <c r="V262" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.8926123380661011</v>
       </c>
       <c r="W262" t="n">
-        <v>0.008283054456114769</v>
+        <v>0.08926369994878769</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5308761596679688</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.868021547794342</v>
       </c>
       <c r="W263" t="n">
-        <v>0.01619420573115349</v>
+        <v>0.1136670112609863</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.53078293800354</v>
       </c>
       <c r="V264" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.5090690851211548</v>
       </c>
       <c r="W264" t="n">
-        <v>0.01996126584708691</v>
+        <v>0.0004714913957286626</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5321099758148193</v>
       </c>
       <c r="V265" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.4032329022884369</v>
       </c>
       <c r="W265" t="n">
-        <v>0.0632999911904335</v>
+        <v>0.01660929992794991</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.526785135269165</v>
       </c>
       <c r="V266" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.8626409769058228</v>
       </c>
       <c r="W266" t="n">
-        <v>0.02425900287926197</v>
+        <v>0.1127991452813148</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5287060737609863</v>
       </c>
       <c r="V267" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.3972595930099487</v>
       </c>
       <c r="W267" t="n">
-        <v>0.0791662186384201</v>
+        <v>0.01727817766368389</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5373499393463135</v>
       </c>
       <c r="V268" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.4094687104225159</v>
       </c>
       <c r="W268" t="n">
-        <v>0.02557847835123539</v>
+        <v>0.01635360904037952</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5332040786743164</v>
       </c>
       <c r="V269" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.5185301303863525</v>
       </c>
       <c r="W269" t="n">
-        <v>0.0624963641166687</v>
+        <v>0.0002153247623937204</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5291488170623779</v>
       </c>
       <c r="V270" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.8651074171066284</v>
       </c>
       <c r="W270" t="n">
-        <v>0.01758458092808723</v>
+        <v>0.1128681823611259</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5307879447937012</v>
       </c>
       <c r="V271" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.4237157702445984</v>
       </c>
       <c r="W271" t="n">
-        <v>4.323047323850915e-05</v>
+        <v>0.01146445050835609</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5585048198699951</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.4007514119148254</v>
       </c>
       <c r="W272" t="n">
-        <v>0.02399608306586742</v>
+        <v>0.02488613687455654</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5304770469665527</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.878789484500885</v>
       </c>
       <c r="W273" t="n">
-        <v>0.0002261705376440659</v>
+        <v>0.1213215515017509</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5393650531768799</v>
       </c>
       <c r="V274" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.5159940123558044</v>
       </c>
       <c r="W274" t="n">
-        <v>0.02683818340301514</v>
+        <v>0.0005462055560201406</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.530526876449585</v>
       </c>
       <c r="V275" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.8648187518119812</v>
       </c>
       <c r="W275" t="n">
-        <v>0.06368038803339005</v>
+        <v>0.1117510572075844</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5247819423675537</v>
       </c>
       <c r="V276" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.489872932434082</v>
       </c>
       <c r="W276" t="n">
-        <v>0.0001093396931537427</v>
+        <v>0.001218638964928687</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5311920642852783</v>
       </c>
       <c r="V277" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.8942939639091492</v>
       </c>
       <c r="W277" t="n">
-        <v>0.07421742379665375</v>
+        <v>0.1318429857492447</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5867609977722168</v>
       </c>
       <c r="V278" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.518805205821991</v>
       </c>
       <c r="W278" t="n">
-        <v>0.002457482740283012</v>
+        <v>0.004617989528924227</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5344638824462891</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.4178190529346466</v>
       </c>
       <c r="W279" t="n">
-        <v>0.0004289629869163036</v>
+        <v>0.01360601652413607</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5314650535583496</v>
       </c>
       <c r="V280" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.3991583585739136</v>
       </c>
       <c r="W280" t="n">
-        <v>0.016335129737854</v>
+        <v>0.01750506088137627</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5317761898040771</v>
       </c>
       <c r="V281" t="n">
-        <v>0.350296825170517</v>
+        <v>0.8633034825325012</v>
       </c>
       <c r="W281" t="n">
-        <v>0.0329347588121891</v>
+        <v>0.1099103465676308</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4230308532714844</v>
       </c>
       <c r="V282" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.4985953271389008</v>
       </c>
       <c r="W282" t="n">
-        <v>0.001762295258231461</v>
+        <v>0.005709989927709103</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3990850448608398</v>
       </c>
       <c r="V283" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.5168291330337524</v>
       </c>
       <c r="W283" t="n">
-        <v>0.01323992200195789</v>
+        <v>0.01386367063969374</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4070529937744141</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.5158957242965698</v>
       </c>
       <c r="W284" t="n">
-        <v>1.202893236040836e-05</v>
+        <v>0.01184673979878426</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4048349857330322</v>
       </c>
       <c r="V285" t="n">
-        <v>0.350784033536911</v>
+        <v>0.4031288623809814</v>
       </c>
       <c r="W285" t="n">
-        <v>0.002921505365520716</v>
+        <v>2.910856892412994e-06</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.406702995300293</v>
       </c>
       <c r="V286" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.5074117183685303</v>
       </c>
       <c r="W286" t="n">
-        <v>0.009811501950025558</v>
+        <v>0.01014224719256163</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4059619903564453</v>
       </c>
       <c r="V287" t="n">
-        <v>0.656647801399231</v>
+        <v>0.8621149063110352</v>
       </c>
       <c r="W287" t="n">
-        <v>0.06284337490797043</v>
+        <v>0.2080754786729813</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4372608661651611</v>
       </c>
       <c r="V288" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.4230384528636932</v>
       </c>
       <c r="W288" t="n">
-        <v>0.06807031482458115</v>
+        <v>0.0002022770349867642</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4214448928833008</v>
       </c>
       <c r="V289" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.8666957020759583</v>
       </c>
       <c r="W289" t="n">
-        <v>0.003151071257889271</v>
+        <v>0.1982482820749283</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.405580997467041</v>
       </c>
       <c r="V290" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.8850526809692383</v>
       </c>
       <c r="W290" t="n">
-        <v>0.0005912568885833025</v>
+        <v>0.2298930883407593</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4069550037384033</v>
       </c>
       <c r="V291" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.4107685089111328</v>
       </c>
       <c r="W291" t="n">
-        <v>0.001283858786337078</v>
+        <v>1.454282210033853e-05</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4062590599060059</v>
       </c>
       <c r="V292" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.404184877872467</v>
       </c>
       <c r="W292" t="n">
-        <v>0.01718978770077229</v>
+        <v>4.302230991015676e-06</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4088070392608643</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.3972805738449097</v>
       </c>
       <c r="W293" t="n">
-        <v>0.01101922150701284</v>
+        <v>0.000132859408040531</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4034960269927979</v>
       </c>
       <c r="V294" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.8863816857337952</v>
       </c>
       <c r="W294" t="n">
-        <v>0.00277818669565022</v>
+        <v>0.2331785559654236</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.4058558940887451</v>
       </c>
       <c r="V295" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.5187024474143982</v>
       </c>
       <c r="W295" t="n">
-        <v>0.05621901154518127</v>
+        <v>0.01273434422910213</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4321548938751221</v>
       </c>
       <c r="V296" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.4877754151821136</v>
       </c>
       <c r="W296" t="n">
-        <v>0.003134240629151464</v>
+        <v>0.003093642415478826</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4095630645751953</v>
       </c>
       <c r="V297" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.8800155520439148</v>
       </c>
       <c r="W297" t="n">
-        <v>0.01737477444112301</v>
+        <v>0.221325546503067</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4084219932556152</v>
       </c>
       <c r="V298" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.5160427093505859</v>
       </c>
       <c r="W298" t="n">
-        <v>0.2868042290210724</v>
+        <v>0.01158221811056137</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4173779487609863</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.3972831964492798</v>
       </c>
       <c r="W299" t="n">
-        <v>0.0001896288886200637</v>
+        <v>0.0004037990584038198</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4374079704284668</v>
       </c>
       <c r="V300" t="n">
-        <v>0.466268926858902</v>
+        <v>0.4030449390411377</v>
       </c>
       <c r="W300" t="n">
-        <v>0.0008329548290930688</v>
+        <v>0.001180817955173552</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4077270030975342</v>
       </c>
       <c r="V301" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.5154922604560852</v>
       </c>
       <c r="W301" t="n">
-        <v>0.06113496050238609</v>
+        <v>0.01161335036158562</v>
       </c>
     </row>
     <row r="302" spans="1:23">
